--- a/Компьютерное моделирование/Компьютерное моделирование  Lab6.xlsx
+++ b/Компьютерное моделирование/Компьютерное моделирование  Lab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Компьютерное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE5D7FE-F4DE-4426-B466-DE5A8BF49919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6AEA74-160A-4EB7-9B93-E8385302190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,8 +212,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.28045266841644795"/>
-                  <c:y val="-0.13764628478044019"/>
+                  <c:x val="0.30145809273840768"/>
+                  <c:y val="9.855579373333051E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -712,7 +712,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Компьютерное моделирование/Компьютерное моделирование  Lab6.xlsx
+++ b/Компьютерное моделирование/Компьютерное моделирование  Lab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el5ah\Documents\Minig Univer\Компьютерное моделирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6AEA74-160A-4EB7-9B93-E8385302190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA47D63-8448-42F5-BB46-E56051302EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,8 +212,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.30145809273840768"/>
-                  <c:y val="9.855579373333051E-2"/>
+                  <c:x val="0.22214365704286965"/>
+                  <c:y val="-0.3971067767472462"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -226,54 +226,66 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'lab6'!$A$2:$A$7</c:f>
+              <c:f>'lab6'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'lab6'!$B$2:$B$7</c:f>
+              <c:f>'lab6'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.4</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.4</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,9 +488,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>422910</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -709,15 +721,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,52 +737,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>10</v>
       </c>
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13.4</v>
+    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>15.4</v>
+    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16.5</v>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19.100000000000001</v>
+      <c r="B9" s="1">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
